--- a/medicine/Mort/Cimetière_communal_de_Drancy/Cimetière_communal_de_Drancy.xlsx
+++ b/medicine/Mort/Cimetière_communal_de_Drancy/Cimetière_communal_de_Drancy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_communal_de_Drancy</t>
+          <t>Cimetière_communal_de_Drancy</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière communal de Drancy est un des deux lieux de sépultures de la commune de Drancy en Seine-Saint-Denis[1], avec le cimetière intercommunal de La Courneuve. Il est situé rue Sacco-et-Vanzetti, et est circonscrit par la rue Anatole-France. L’entrée principale se trouve au débouché de la rue Roger-Petieu.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière communal de Drancy est un des deux lieux de sépultures de la commune de Drancy en Seine-Saint-Denis, avec le cimetière intercommunal de La Courneuve. Il est situé rue Sacco-et-Vanzetti, et est circonscrit par la rue Anatole-France. L’entrée principale se trouve au débouché de la rue Roger-Petieu.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_communal_de_Drancy</t>
+          <t>Cimetière_communal_de_Drancy</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière communal de Drancy a été créé en 1895, et n'a pas à ce jour, été agrandi[2]. Il a bénéficié de la pose d'ouvrages cinéraire en 2015[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière communal de Drancy a été créé en 1895, et n'a pas à ce jour, été agrandi. Il a bénéficié de la pose d'ouvrages cinéraire en 2015.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_communal_de_Drancy</t>
+          <t>Cimetière_communal_de_Drancy</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Composé d'un seul espace de forme approximativement carrée, le cimetière offre une apparence très minérale, sauf dans ses aménagements les plus récents.
-Il s'y trouve un monument aux morts de la Première Guerre mondiale, inauguré en 1923[4].
+Il s'y trouve un monument aux morts de la Première Guerre mondiale, inauguré en 1923.
 L’ossuaire est remarquable pour sa présentation soigneuse des restes funéraires dans des reliquaires.
 </t>
         </is>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_communal_de_Drancy</t>
+          <t>Cimetière_communal_de_Drancy</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Jean Garcia (1925-2012), homme politique.
 Jacques Jorissen, fusillé le 23 avril 1942 à Nantes à l'âge de 23 ans.
